--- a/Results/TOPSIS Analysis.xlsx
+++ b/Results/TOPSIS Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Human Quality Factors TOPSIS" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="42">
   <si>
     <t>Average Results</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>GPT 4 Enhanced Prompt</t>
+  </si>
+  <si>
+    <t>Ranking by Relative Closness</t>
   </si>
 </sst>
 </file>
@@ -602,24 +605,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -631,9 +616,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,17 +642,38 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,22 +1088,22 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="15"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="21" t="s">
@@ -1506,19 +1509,19 @@
       <c r="J10" s="9">
         <v>6.8</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="34">
         <f>VALUE([1]code_llama_simple_prompt_comple!$D$177)</f>
         <v>2.3028571428571429</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="36">
         <f>33/164</f>
         <v>0.20121951219512196</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="36">
         <f>15/164</f>
         <v>9.1463414634146339E-2</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="36">
         <f>504/164</f>
         <v>3.0731707317073171</v>
       </c>
@@ -1558,15 +1561,15 @@
         <f>VALUE([2]code_llama_instructional_tone_p!$D$174)</f>
         <v>2.3953488372093021</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="36">
         <f>36/164</f>
         <v>0.21951219512195122</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="36">
         <f>13/164</f>
         <v>7.926829268292683E-2</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="36">
         <f>516/164</f>
         <v>3.1463414634146343</v>
       </c>
@@ -1606,34 +1609,34 @@
         <f>VALUE([3]code_llama_enhanced_prompt_comp!$D$171)</f>
         <v>2.2721893491124261</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="36">
         <f>21/164</f>
         <v>0.12804878048780488</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="36">
         <f>10/164</f>
         <v>6.097560975609756E-2</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="36">
         <f>496/164</f>
         <v>3.024390243902439</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.4" thickBot="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="11"/>
@@ -1669,25 +1672,25 @@
     </row>
     <row r="16" spans="1:15" ht="14.4" thickBot="1"/>
     <row r="17" spans="1:17" ht="14.4" thickBot="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="33"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="3" t="s">
@@ -1742,7 +1745,7 @@
         <v>0.28200205865594191</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:N19" si="0">C3/SQRT(SUMSQ(C$3:C$12))</f>
+        <f t="shared" ref="C19:M19" si="0">C3/SQRT(SUMSQ(C$3:C$12))</f>
         <v>0.33931993237023339</v>
       </c>
       <c r="D19" s="8">
@@ -1852,7 +1855,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="8">
-        <f t="shared" ref="B20:N28" si="2">B5/SQRT(SUMSQ(B$3:B$12))</f>
+        <f t="shared" ref="B21:N25" si="2">B5/SQRT(SUMSQ(B$3:B$12))</f>
         <v>0.30020233655324347</v>
       </c>
       <c r="C21" s="8">
@@ -2145,7 +2148,7 @@
         <v>0.30504974650958522</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" ref="C26:N26" si="3">D10/SQRT(SUMSQ(D$3:D$12))</f>
+        <f t="shared" ref="D26:N26" si="3">D10/SQRT(SUMSQ(D$3:D$12))</f>
         <v>0.32602068259482109</v>
       </c>
       <c r="E26" s="8">
@@ -2259,7 +2262,7 @@
         <v>0.30320096016710291</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" ref="C28:N28" si="5">D12/SQRT(SUMSQ(D$3:D$12))</f>
+        <f t="shared" ref="D28:N28" si="5">D12/SQRT(SUMSQ(D$3:D$12))</f>
         <v>0.32066958324524042</v>
       </c>
       <c r="E28" s="8">
@@ -2362,43 +2365,43 @@
         <v>0.35072384326225481</v>
       </c>
       <c r="E31" s="22">
-        <f>MIN(E19:E28)</f>
+        <f t="shared" ref="E31:N31" si="6">MIN(E19:E28)</f>
         <v>0.28364385803653858</v>
       </c>
       <c r="F31" s="22">
-        <f>MIN(F19:F28)</f>
+        <f t="shared" si="6"/>
         <v>0.2928167494382683</v>
       </c>
       <c r="G31" s="22">
-        <f>MIN(G19:G28)</f>
+        <f t="shared" si="6"/>
         <v>0.27468100355485614</v>
       </c>
       <c r="H31" s="22">
-        <f>MIN(H19:H28)</f>
+        <f t="shared" si="6"/>
         <v>0.29026060560803257</v>
       </c>
       <c r="I31" s="22">
-        <f>MIN(I19:I28)</f>
+        <f t="shared" si="6"/>
         <v>0.25092895506363061</v>
       </c>
       <c r="J31" s="22">
-        <f>MIN(J19:J28)</f>
+        <f t="shared" si="6"/>
         <v>0.2510521045282364</v>
       </c>
       <c r="K31" s="22">
-        <f>MIN(K19:K28)</f>
+        <f t="shared" si="6"/>
         <v>0.19127692967443577</v>
       </c>
       <c r="L31" s="22">
-        <f>MIN(L19:L28)</f>
+        <f t="shared" si="6"/>
         <v>0.10428062877237489</v>
       </c>
       <c r="M31" s="22">
-        <f>MIN(M19:M28)</f>
+        <f t="shared" si="6"/>
         <v>0.14847846772912468</v>
       </c>
       <c r="N31" s="22">
-        <f>MIN(N19:N28)</f>
+        <f t="shared" si="6"/>
         <v>0.29865112744085959</v>
       </c>
     </row>
@@ -2419,43 +2422,43 @@
         <v>0.29292319017376378</v>
       </c>
       <c r="E32" s="22">
-        <f>MAX(E19:E28)</f>
+        <f t="shared" ref="E32:N32" si="7">MAX(E19:E28)</f>
         <v>0.37618591951749636</v>
       </c>
       <c r="F32" s="22">
-        <f>MAX(F19:F28)</f>
+        <f t="shared" si="7"/>
         <v>0.36734181872505511</v>
       </c>
       <c r="G32" s="22">
-        <f>MAX(G19:G28)</f>
+        <f t="shared" si="7"/>
         <v>0.39366316826671649</v>
       </c>
       <c r="H32" s="22">
-        <f>MAX(H19:H28)</f>
+        <f t="shared" si="7"/>
         <v>0.36045020345112477</v>
       </c>
       <c r="I32" s="22">
-        <f>MAX(I19:I28)</f>
+        <f t="shared" si="7"/>
         <v>0.41448031142732839</v>
       </c>
       <c r="J32" s="22">
-        <f>MAX(J19:J28)</f>
+        <f t="shared" si="7"/>
         <v>0.41444657195623846</v>
       </c>
       <c r="K32" s="22">
-        <f>MAX(K19:K28)</f>
+        <f t="shared" si="7"/>
         <v>0.40040637278515223</v>
       </c>
       <c r="L32" s="22">
-        <f>MAX(L19:L28)</f>
+        <f t="shared" si="7"/>
         <v>0.44556268657287446</v>
       </c>
       <c r="M32" s="22">
-        <f>MAX(M19:M28)</f>
+        <f t="shared" si="7"/>
         <v>0.50482679027902388</v>
       </c>
       <c r="N32" s="22">
-        <f>MAX(N19:N28)</f>
+        <f t="shared" si="7"/>
         <v>0.32999106056736954</v>
       </c>
     </row>
@@ -2503,7 +2506,7 @@
         <v>9.6520792921098567E-2</v>
       </c>
       <c r="D36" s="15">
-        <f t="shared" ref="D36:D44" si="6">C36/(B36+C36)</f>
+        <f t="shared" ref="D36:D44" si="8">C36/(B36+C36)</f>
         <v>0.1289737217110479</v>
       </c>
     </row>
@@ -2520,7 +2523,7 @@
         <v>0.3758575581877312</v>
       </c>
       <c r="D37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.5070929390000718</v>
       </c>
     </row>
@@ -2537,7 +2540,7 @@
         <v>0.59530849645536366</v>
       </c>
       <c r="D38" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.82077529338439548</v>
       </c>
     </row>
@@ -2554,7 +2557,7 @@
         <v>0.43081302860574694</v>
       </c>
       <c r="D39" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.51598556262668127</v>
       </c>
     </row>
@@ -2571,7 +2574,7 @@
         <v>0.537445238691872</v>
       </c>
       <c r="D40" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.63143134098525999</v>
       </c>
     </row>
@@ -2588,7 +2591,7 @@
         <v>0.55651586899042049</v>
       </c>
       <c r="D41" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.74803976863019883</v>
       </c>
     </row>
@@ -2605,7 +2608,7 @@
         <v>0.38974546802365395</v>
       </c>
       <c r="D42" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.49355846555326982</v>
       </c>
     </row>
@@ -2622,7 +2625,7 @@
         <v>0.38358477153260628</v>
       </c>
       <c r="D43" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.50562957430352196</v>
       </c>
     </row>
@@ -2639,7 +2642,7 @@
         <v>0.48690175310593642</v>
       </c>
       <c r="D44" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.68500981969767838</v>
       </c>
     </row>
@@ -2661,13 +2664,13 @@
       <c r="A47" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="37">
         <v>0.13</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="40">
         <v>0.6</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="37">
         <v>0.82</v>
       </c>
     </row>
@@ -2675,13 +2678,13 @@
       <c r="A48" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="38">
         <v>0.19</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="38">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D48" s="38">
         <v>0.75</v>
       </c>
     </row>
@@ -2689,13 +2692,13 @@
       <c r="A49" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="45">
+      <c r="B49" s="38">
         <v>0.22</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="38">
         <v>0.49</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="38">
         <v>0.69</v>
       </c>
     </row>
@@ -2703,13 +2706,13 @@
       <c r="A50" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="38">
         <v>0.31</v>
       </c>
-      <c r="C50" s="45">
+      <c r="C50" s="38">
         <v>0.54</v>
       </c>
-      <c r="D50" s="45">
+      <c r="D50" s="38">
         <v>0.63</v>
       </c>
     </row>
@@ -2717,13 +2720,13 @@
       <c r="A51" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="39">
         <v>0.4</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="38">
         <v>0.43</v>
       </c>
-      <c r="D51" s="45">
+      <c r="D51" s="38">
         <v>0.52</v>
       </c>
     </row>
@@ -2731,13 +2734,13 @@
       <c r="A52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="38">
         <v>0.37</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="38">
         <v>0.39</v>
       </c>
-      <c r="D52" s="45">
+      <c r="D52" s="38">
         <v>0.51</v>
       </c>
     </row>
@@ -2745,13 +2748,13 @@
       <c r="A53" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="45">
+      <c r="B53" s="38">
         <v>0.37</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="38">
         <v>0.38</v>
       </c>
-      <c r="D53" s="45">
+      <c r="D53" s="38">
         <v>0.51</v>
       </c>
     </row>
@@ -2759,13 +2762,13 @@
       <c r="A54" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="45">
+      <c r="B54" s="38">
         <v>0.38</v>
       </c>
-      <c r="C54" s="45">
+      <c r="C54" s="38">
         <v>0.38</v>
       </c>
-      <c r="D54" s="45">
+      <c r="D54" s="38">
         <v>0.51</v>
       </c>
     </row>
@@ -2773,13 +2776,13 @@
       <c r="A55" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="46">
+      <c r="B55" s="39">
         <v>0.4</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="38">
         <v>0.39</v>
       </c>
-      <c r="D55" s="45">
+      <c r="D55" s="38">
         <v>0.49</v>
       </c>
     </row>
@@ -2787,13 +2790,13 @@
       <c r="A56" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="45">
+      <c r="B56" s="38">
         <v>0.65</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C56" s="39">
         <v>0.1</v>
       </c>
-      <c r="D56" s="45">
+      <c r="D56" s="38">
         <v>0.13</v>
       </c>
     </row>
@@ -2814,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="84" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3037,19 +3040,19 @@
       <c r="B10" s="9">
         <v>1.2847420999999999E-2</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="36">
         <f>68/164</f>
         <v>0.41463414634146339</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="35">
         <f>2/164</f>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="36">
         <f>19/164</f>
         <v>0.11585365853658537</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="36">
         <f>15/164</f>
         <v>9.1463414634146339E-2</v>
       </c>
@@ -3061,19 +3064,19 @@
       <c r="B11" s="9">
         <v>1.4506764E-2</v>
       </c>
-      <c r="C11" s="43">
-        <f>68/164</f>
-        <v>0.41463414634146339</v>
-      </c>
-      <c r="D11" s="42">
+      <c r="C11" s="36">
+        <f>67/164</f>
+        <v>0.40853658536585363</v>
+      </c>
+      <c r="D11" s="35">
         <f>1/164</f>
         <v>6.0975609756097563E-3</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="36">
         <f>25/164</f>
         <v>0.1524390243902439</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="36">
         <f>13/164</f>
         <v>7.926829268292683E-2</v>
       </c>
@@ -3085,19 +3088,19 @@
       <c r="B12" s="9">
         <v>1.3686452E-2</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="36">
         <f>87/164</f>
         <v>0.53048780487804881</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="35">
         <f>2/164</f>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="36">
         <f>31/164</f>
         <v>0.18902439024390244</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="36">
         <f>10/164</f>
         <v>6.097560975609756E-2</v>
       </c>
@@ -3151,7 +3154,7 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:F17" si="0">C3/SQRT(SUMSQ(C$3:C$12))</f>
-        <v>0.45208750474735687</v>
+        <v>0.45231957415377966</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
@@ -3176,7 +3179,7 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="1"/>
-        <v>0.32252584180146798</v>
+        <v>0.3226914035121477</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
@@ -3201,7 +3204,7 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="2"/>
-        <v>0.29495953053638529</v>
+        <v>0.2951109416735026</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="2"/>
@@ -3226,7 +3229,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="3"/>
-        <v>0.34182225968702595</v>
+        <v>0.34199772679919926</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="3"/>
@@ -3251,7 +3254,7 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="4"/>
-        <v>0.31425594842194315</v>
+        <v>0.31441726496055417</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="4"/>
@@ -3276,7 +3279,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="5"/>
-        <v>0.3252824729279763</v>
+        <v>0.32544944969601219</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="5"/>
@@ -3301,7 +3304,7 @@
       </c>
       <c r="C23" s="8">
         <f>C9/SQRT(SUMSQ(C$3:C$12))</f>
-        <v>0.39419825109068313</v>
+        <v>0.39440060429262497</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="6"/>
@@ -3326,7 +3329,7 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="7"/>
-        <v>0.18745091660256261</v>
+        <v>0.18754714050278667</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="7"/>
@@ -3351,7 +3354,7 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" si="8"/>
-        <v>0.18745091660256261</v>
+        <v>0.18478909431892218</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="8"/>
@@ -3376,7 +3379,7 @@
       </c>
       <c r="C26" s="8">
         <f t="shared" si="9"/>
-        <v>0.23982690800621981</v>
+        <v>0.23995001799621241</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" si="9"/>
@@ -3392,7 +3395,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="34"/>
+      <c r="A27" s="28"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="15" t="s">
@@ -3424,7 +3427,7 @@
       </c>
       <c r="C29" s="22">
         <f>MAX(C17:C26)</f>
-        <v>0.45208750474735687</v>
+        <v>0.45231957415377966</v>
       </c>
       <c r="D29" s="22">
         <f>MIN(D17:D26)</f>
@@ -3449,7 +3452,7 @@
       </c>
       <c r="C30" s="22">
         <f>MIN(C17:C26)</f>
-        <v>0.18745091660256261</v>
+        <v>0.18478909431892218</v>
       </c>
       <c r="D30" s="22">
         <f>MAX(D17:D26)</f>
@@ -3478,7 +3481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:6">
       <c r="A33" s="15" t="s">
         <v>15</v>
       </c>
@@ -3488,139 +3491,139 @@
       </c>
       <c r="C33" s="15" cm="1">
         <f t="array" ref="C33">SQRT(SUM((B17:F17 - B$30:F$30)^2))</f>
-        <v>0.64035168837330902</v>
+        <v>0.64155305209958979</v>
       </c>
       <c r="D33" s="15">
         <f>C33/(B33+C33)</f>
-        <v>0.62050827059759739</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.62094953669539987</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="15" cm="1">
         <f t="array" ref="B34">SQRT(SUM((B18:F18 - B$29:F$29)^2))</f>
-        <v>0.42035143091022947</v>
+        <v>0.4203719348230438</v>
       </c>
       <c r="C34" s="15" cm="1">
         <f t="array" ref="C34">SQRT(SUM((B18:F18 - B$30:F$30)^2))</f>
-        <v>0.55381452992875446</v>
+        <v>0.5545109061357959</v>
       </c>
       <c r="D34" s="15">
         <f t="shared" ref="D34:D39" si="10">C34/(B34+C34)</f>
-        <v>0.56850121251597741</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.56879748297796506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="15" cm="1">
         <f t="array" ref="B35">SQRT(SUM((B19:F19 - B$29:F$29)^2))</f>
-        <v>0.23882495821440039</v>
+        <v>0.23887803271289967</v>
       </c>
       <c r="C35" s="15" cm="1">
         <f t="array" ref="C35">SQRT(SUM((B19:F19 - B$30:F$30)^2))</f>
-        <v>0.61111988394006922</v>
+        <v>0.61162105954641499</v>
       </c>
       <c r="D35" s="15">
         <f t="shared" si="10"/>
-        <v>0.71901122711796372</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.71913193689798027</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="15" cm="1">
         <f t="array" ref="B36">SQRT(SUM((B20:F20 - B$29:F$29)^2))</f>
-        <v>0.28766956518640802</v>
+        <v>0.28769126589114508</v>
       </c>
       <c r="C36" s="15" cm="1">
         <f t="array" ref="C36">SQRT(SUM((B20:F20 - B$30:F$30)^2))</f>
-        <v>0.52160768308872263</v>
+        <v>0.52245441678466364</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" si="10"/>
-        <v>0.64453521237679867</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.64488946612547859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="15" cm="1">
         <f t="array" ref="B37">SQRT(SUM((B21:F21 - B$29:F$29)^2))</f>
-        <v>0.45186239508156356</v>
+        <v>0.45188398184775846</v>
       </c>
       <c r="C37" s="15" cm="1">
         <f t="array" ref="C37">SQRT(SUM((B21:F21 - B$30:F$30)^2))</f>
-        <v>0.52369853563591018</v>
+        <v>0.52438926643894856</v>
       </c>
       <c r="D37" s="15">
         <f t="shared" si="10"/>
-        <v>0.53681786462149261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.53713370448203512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="15" cm="1">
         <f t="array" ref="B38">SQRT(SUM((B22:F22 - B$29:F$29)^2))</f>
-        <v>0.48263257015881794</v>
+        <v>0.48264967643552975</v>
       </c>
       <c r="C38" s="15" cm="1">
         <f t="array" ref="C38">SQRT(SUM((B22:F22 - B$30:F$30)^2))</f>
-        <v>0.44788744439927775</v>
+        <v>0.44876604206004678</v>
       </c>
       <c r="D38" s="15">
         <f t="shared" si="10"/>
-        <v>0.4813302641448069</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.48181068146981038</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="15" cm="1">
         <f t="array" ref="B39">SQRT(SUM((B23:F23 - B$29:F$29)^2))</f>
-        <v>0.10801221350557991</v>
+        <v>0.10802814284817457</v>
       </c>
       <c r="C39" s="15" cm="1">
         <f t="array" ref="C39">SQRT(SUM((B23:F23 - B$30:F$30)^2))</f>
-        <v>0.7343212649058668</v>
+        <v>0.73513280765346423</v>
       </c>
       <c r="D39" s="15">
         <f t="shared" si="10"/>
-        <v>0.87177024744489595</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.87187719879116421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="15" cm="1">
         <f t="array" ref="B40">SQRT(SUM((B24:F24 - B$29:F$29)^2))</f>
-        <v>0.54538534604894817</v>
+        <v>0.54545127511216163</v>
       </c>
       <c r="C40" s="15" cm="1">
         <f t="array" ref="C40">SQRT(SUM((B24:F24 - B$30:F$30)^2))</f>
-        <v>0.30324301422332778</v>
+        <v>0.30325555641076335</v>
       </c>
       <c r="D40" s="15">
         <f t="shared" ref="D40:D42" si="11">C40/(B40+C40)</f>
-        <v>0.35733311355047642</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.35731485260534507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="15" cm="1">
         <f t="array" ref="B41">SQRT(SUM((B25:F25 - B$29:F$29)^2))</f>
-        <v>0.55811902946267455</v>
+        <v>0.55949699275698461</v>
       </c>
       <c r="C41" s="15" cm="1">
         <f t="array" ref="C41">SQRT(SUM((B25:F25 - B$30:F$30)^2))</f>
@@ -3628,184 +3631,197 @@
       </c>
       <c r="D41" s="15">
         <f t="shared" si="11"/>
-        <v>0.42046469966932148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.41986394204337446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="15" cm="1">
         <f t="array" ref="B42">SQRT(SUM((B26:F26 - B$29:F$29)^2))</f>
-        <v>0.61872511518424667</v>
+        <v>0.61876250339966288</v>
       </c>
       <c r="C42" s="15" cm="1">
         <f t="array" ref="C42">SQRT(SUM((B26:F26 - B$30:F$30)^2))</f>
-        <v>0.29721446555446096</v>
+        <v>0.29771785562884823</v>
       </c>
       <c r="D42" s="15">
         <f t="shared" si="11"/>
-        <v>0.32449134397572027</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A44" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="21" t="s">
+        <v>0.32484913909604735</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.4" thickBot="1"/>
+    <row r="44" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A44" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="50" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A45" s="15" t="s">
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A45" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="48">
-        <v>0.108012</v>
-      </c>
-      <c r="C45" s="49">
-        <v>0.73432126499999995</v>
-      </c>
-      <c r="D45" s="49">
-        <v>0.87177024700000005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A46" s="15" t="s">
+      <c r="B45" s="41">
+        <v>0.108028</v>
+      </c>
+      <c r="C45" s="41">
+        <v>0.73513280800000003</v>
+      </c>
+      <c r="D45" s="41">
+        <v>0.87187719900000005</v>
+      </c>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A46" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="50">
-        <v>0.23882500000000001</v>
-      </c>
-      <c r="C46" s="51">
-        <v>0.61111988399999995</v>
-      </c>
-      <c r="D46" s="51">
-        <v>0.71901122699999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A47" s="15" t="s">
+      <c r="B46" s="41">
+        <v>0.23887800000000001</v>
+      </c>
+      <c r="C46" s="41">
+        <v>0.61162106000000005</v>
+      </c>
+      <c r="D46" s="41">
+        <v>0.719131937</v>
+      </c>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A47" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="50">
-        <v>0.28766999999999998</v>
-      </c>
-      <c r="C47" s="51">
-        <v>0.52160768300000004</v>
-      </c>
-      <c r="D47" s="51">
-        <v>0.64453521199999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A48" s="15" t="s">
+      <c r="B47" s="41">
+        <v>0.28769099999999997</v>
+      </c>
+      <c r="C47" s="41">
+        <v>0.52245441699999995</v>
+      </c>
+      <c r="D47" s="41">
+        <v>0.64488946599999997</v>
+      </c>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A48" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="50">
+      <c r="B48" s="41">
         <v>0.39162799999999998</v>
       </c>
-      <c r="C48" s="51">
-        <v>0.64035168799999997</v>
-      </c>
-      <c r="D48" s="51">
-        <v>0.62050827099999994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A49" s="15" t="s">
+      <c r="C48" s="41">
+        <v>0.64155305200000001</v>
+      </c>
+      <c r="D48" s="41">
+        <v>0.620949537</v>
+      </c>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A49" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="50">
-        <v>0.42035099999999997</v>
-      </c>
-      <c r="C49" s="51">
-        <v>0.55381453000000003</v>
-      </c>
-      <c r="D49" s="51">
-        <v>0.56850121300000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A50" s="15" t="s">
+      <c r="B49" s="41">
+        <v>0.42037200000000002</v>
+      </c>
+      <c r="C49" s="41">
+        <v>0.55451090599999997</v>
+      </c>
+      <c r="D49" s="41">
+        <v>0.56879748299999999</v>
+      </c>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A50" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="50">
-        <v>0.45186199999999999</v>
-      </c>
-      <c r="C50" s="51">
-        <v>0.52369853600000005</v>
-      </c>
-      <c r="D50" s="51">
-        <v>0.53681786499999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A51" s="15" t="s">
+      <c r="B50" s="41">
+        <v>0.45188400000000001</v>
+      </c>
+      <c r="C50" s="41">
+        <v>0.52438926600000002</v>
+      </c>
+      <c r="D50" s="41">
+        <v>0.53713370400000005</v>
+      </c>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A51" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="50">
-        <v>0.48263299999999998</v>
-      </c>
-      <c r="C51" s="51">
-        <v>0.44788744400000002</v>
-      </c>
-      <c r="D51" s="51">
-        <v>0.48133026400000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A52" s="15" t="s">
+      <c r="B51" s="41">
+        <v>0.48265000000000002</v>
+      </c>
+      <c r="C51" s="41">
+        <v>0.44876604199999998</v>
+      </c>
+      <c r="D51" s="41">
+        <v>0.48181068100000002</v>
+      </c>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A52" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="50">
-        <v>0.55811900000000003</v>
-      </c>
-      <c r="C52" s="51">
+      <c r="B52" s="41">
+        <v>0.55949700000000002</v>
+      </c>
+      <c r="C52" s="41">
         <v>0.404926758</v>
       </c>
-      <c r="D52" s="51">
-        <v>0.42046470000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A53" s="15" t="s">
+      <c r="D52" s="41">
+        <v>0.41986394199999999</v>
+      </c>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A53" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="50">
-        <v>0.54538500000000001</v>
-      </c>
-      <c r="C53" s="51">
-        <v>0.30324301399999998</v>
-      </c>
-      <c r="D53" s="51">
-        <v>0.35733311400000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A54" s="15" t="s">
+      <c r="B53" s="41">
+        <v>0.54545100000000002</v>
+      </c>
+      <c r="C53" s="41">
+        <v>0.30325555599999998</v>
+      </c>
+      <c r="D53" s="41">
+        <v>0.35731485299999999</v>
+      </c>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A54" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="50">
-        <v>0.61872499999999997</v>
-      </c>
-      <c r="C54" s="51">
-        <v>0.29721446600000001</v>
-      </c>
-      <c r="D54" s="51">
-        <v>0.32449134400000001</v>
-      </c>
+      <c r="B54" s="41">
+        <v>0.61876299999999995</v>
+      </c>
+      <c r="C54" s="41">
+        <v>0.297717856</v>
+      </c>
+      <c r="D54" s="41">
+        <v>0.32484913900000001</v>
+      </c>
+      <c r="F54"/>
     </row>
   </sheetData>
-  <sortState ref="A45:D54">
-    <sortCondition descending="1" ref="D45:D54"/>
+  <sortState ref="F45:I54">
+    <sortCondition descending="1" ref="I45:I54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>